--- a/dtpu_configurations/only_integer32/100mhz/graph.xlsx
+++ b/dtpu_configurations/only_integer32/100mhz/graph.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA4AFBD-F5D6-4C0E-9897-AA119CA0A4AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C54C657F-1CC0-4D09-8D4A-9E4B825FD925}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
   <si>
     <t>3x3</t>
   </si>
@@ -35,27 +35,6 @@
   </si>
   <si>
     <t>8x8</t>
-  </si>
-  <si>
-    <t>10x10</t>
-  </si>
-  <si>
-    <t>12x12</t>
-  </si>
-  <si>
-    <t>14x14</t>
-  </si>
-  <si>
-    <t>16x16</t>
-  </si>
-  <si>
-    <t>18x18</t>
-  </si>
-  <si>
-    <t>20x20</t>
-  </si>
-  <si>
-    <t>22x22</t>
   </si>
   <si>
     <t>Clocks</t>
@@ -238,7 +217,7 @@
             <c:strRef>
               <c:f>utilization!$A$2:$A$14</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -256,27 +235,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -288,43 +246,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>16.53</c:v>
+                  <c:v>18.489999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.48</c:v>
+                  <c:v>19.89</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.170000000000002</c:v>
+                  <c:v>22.94</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.77</c:v>
+                  <c:v>26.15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19.04</c:v>
+                  <c:v>28.77</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.02</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>21.83</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>23.95</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>25.92</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>31.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>43.19</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>57.08</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>71.78</c:v>
+                  <c:v>39.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -366,7 +303,7 @@
             <c:strRef>
               <c:f>utilization!$A$2:$A$14</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -384,27 +321,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -422,37 +338,16 @@
                   <c:v>5.34</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.43</c:v>
+                  <c:v>5.71</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.53</c:v>
+                  <c:v>6.08</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.62</c:v>
+                  <c:v>6.45</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.71</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.9</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.08</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.26</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.45</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.6</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.82</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7</c:v>
+                  <c:v>6.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -494,7 +389,7 @@
             <c:strRef>
               <c:f>utilization!$A$2:$A$14</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -512,27 +407,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -544,43 +418,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>11.12</c:v>
+                  <c:v>12.72</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.67</c:v>
+                  <c:v>14.27</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>15.97</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.57</c:v>
+                  <c:v>18.23</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13</c:v>
+                  <c:v>20.61</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.82</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>15.23</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>16.95</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>18.899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>22.15</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>27.66</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>33.799999999999997</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>40.549999999999997</c:v>
+                  <c:v>24.28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -622,7 +475,7 @@
             <c:strRef>
               <c:f>utilization!$A$2:$A$14</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -640,27 +493,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -672,42 +504,21 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>34.29</c:v>
+                  <c:v>57.86</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46.43</c:v>
+                  <c:v>57.86</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>46.43</c:v>
+                  <c:v>57.86</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>52.14</c:v>
+                  <c:v>57.86</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>52.14</c:v>
+                  <c:v>57.86</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>57.86</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>57.86</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>57.86</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>57.86</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>57.86</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>57.86</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>57.86</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>57.86</c:v>
                 </c:pt>
               </c:numCache>
@@ -750,7 +561,7 @@
             <c:strRef>
               <c:f>utilization!$A$2:$A$14</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -768,27 +579,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -800,43 +590,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>2.73</c:v>
+                  <c:v>12.27</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.45</c:v>
+                  <c:v>21.82</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.09</c:v>
+                  <c:v>34.090000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.64</c:v>
+                  <c:v>49.09</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19.09</c:v>
+                  <c:v>66.819999999999993</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25.45</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>40.909999999999997</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>82.73</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>100</c:v>
+                  <c:v>79.09</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -878,7 +647,7 @@
             <c:strRef>
               <c:f>utilization!$A$2:$A$14</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -896,27 +665,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -943,27 +691,6 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
@@ -1008,7 +735,7 @@
             <c:strRef>
               <c:f>utilization!$A$2:$A$14</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -1026,27 +753,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1074,27 +780,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>3.13</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.13</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.13</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.13</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.13</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.13</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.13</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1388,7 +1073,7 @@
             <c:strRef>
               <c:f>tminig!$A$2:$A$14</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -1406,27 +1091,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1438,43 +1102,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0.03</c:v>
+                  <c:v>0.43</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.02</c:v>
+                  <c:v>0.43</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.02</c:v>
+                  <c:v>0.34</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.65</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.84</c:v>
+                  <c:v>0.59</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.56000000000000005</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.69</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.42</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.26</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.16</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.14000000000000001</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1516,7 +1159,7 @@
             <c:strRef>
               <c:f>tminig!$A$2:$A$14</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -1534,27 +1177,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1566,43 +1188,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0.02</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.02</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.02</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.02</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.02</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1935,7 +1536,7 @@
             <c:strRef>
               <c:f>power!$A$2:$A$14</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -1953,27 +1554,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1985,42 +1565,21 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0.03</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.03</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.04</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.04</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.04</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -2061,7 +1620,7 @@
             <c:strRef>
               <c:f>power!$A$2:$A$14</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -2079,27 +1638,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2127,27 +1665,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.04</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2187,7 +1704,7 @@
             <c:strRef>
               <c:f>power!$A$2:$A$14</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -2205,27 +1722,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2246,33 +1742,12 @@
                   <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.01</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.01</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>0.02</c:v>
                 </c:pt>
               </c:numCache>
@@ -2313,7 +1788,7 @@
             <c:strRef>
               <c:f>power!$A$2:$A$14</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -2331,27 +1806,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2379,27 +1833,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.03</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2439,7 +1872,7 @@
             <c:strRef>
               <c:f>power!$A$2:$A$14</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -2457,27 +1890,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2504,27 +1916,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2565,7 +1956,7 @@
             <c:strRef>
               <c:f>power!$A$2:$A$14</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -2583,27 +1974,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2630,27 +2000,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2693,7 +2042,7 @@
             <c:strRef>
               <c:f>power!$A$2:$A$14</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -2711,27 +2060,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2758,27 +2086,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2821,7 +2128,7 @@
             <c:strRef>
               <c:f>power!$A$2:$A$14</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -2839,27 +2146,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2886,27 +2172,6 @@
                   <c:v>1.26</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>1.26</c:v>
                 </c:pt>
               </c:numCache>
@@ -2949,7 +2214,7 @@
             <c:strRef>
               <c:f>power!$A$2:$A$14</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -2967,27 +2232,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3014,27 +2258,6 @@
                   <c:v>0.13</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>0.13</c:v>
                 </c:pt>
               </c:numCache>
@@ -3077,7 +2300,7 @@
             <c:strRef>
               <c:f>power!$A$2:$A$14</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -3095,27 +2318,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3127,43 +2329,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>1.46</c:v>
+                  <c:v>1.48</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.47</c:v>
+                  <c:v>1.48</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.48</c:v>
+                  <c:v>1.49</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.48</c:v>
+                  <c:v>1.51</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.49</c:v>
+                  <c:v>1.52</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.48</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.49</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.51</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.56</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.56</c:v>
+                  <c:v>1.52</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5502,35 +4683,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H14"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -5538,19 +4719,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.53</v>
+        <v>18.489999999999998</v>
       </c>
       <c r="C2">
         <v>5.34</v>
       </c>
       <c r="D2">
-        <v>11.12</v>
+        <v>12.72</v>
       </c>
       <c r="E2">
-        <v>34.29</v>
+        <v>57.86</v>
       </c>
       <c r="F2">
-        <v>2.73</v>
+        <v>12.27</v>
       </c>
       <c r="G2">
         <v>8</v>
@@ -5564,19 +4745,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.48</v>
+        <v>19.89</v>
       </c>
       <c r="C3">
         <v>5.34</v>
       </c>
       <c r="D3">
-        <v>11.67</v>
+        <v>14.27</v>
       </c>
       <c r="E3">
-        <v>46.43</v>
+        <v>57.86</v>
       </c>
       <c r="F3">
-        <v>5.45</v>
+        <v>21.82</v>
       </c>
       <c r="G3">
         <v>8</v>
@@ -5590,19 +4771,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.170000000000002</v>
+        <v>22.94</v>
       </c>
       <c r="C4">
-        <v>5.43</v>
+        <v>5.71</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>15.97</v>
       </c>
       <c r="E4">
-        <v>46.43</v>
+        <v>57.86</v>
       </c>
       <c r="F4">
-        <v>9.09</v>
+        <v>34.090000000000003</v>
       </c>
       <c r="G4">
         <v>8</v>
@@ -5616,19 +4797,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.77</v>
+        <v>26.15</v>
       </c>
       <c r="C5">
-        <v>5.53</v>
+        <v>6.08</v>
       </c>
       <c r="D5">
-        <v>12.57</v>
+        <v>18.23</v>
       </c>
       <c r="E5">
-        <v>52.14</v>
+        <v>57.86</v>
       </c>
       <c r="F5">
-        <v>13.64</v>
+        <v>49.09</v>
       </c>
       <c r="G5">
         <v>8</v>
@@ -5642,19 +4823,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.04</v>
+        <v>28.77</v>
       </c>
       <c r="C6">
-        <v>5.62</v>
+        <v>6.45</v>
       </c>
       <c r="D6">
-        <v>13</v>
+        <v>20.61</v>
       </c>
       <c r="E6">
-        <v>52.14</v>
+        <v>57.86</v>
       </c>
       <c r="F6">
-        <v>19.09</v>
+        <v>66.819999999999993</v>
       </c>
       <c r="G6">
         <v>8</v>
@@ -5668,207 +4849,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.02</v>
+        <v>39.4</v>
       </c>
       <c r="C7">
-        <v>5.71</v>
+        <v>6.8</v>
       </c>
       <c r="D7">
-        <v>13.82</v>
+        <v>24.28</v>
       </c>
       <c r="E7">
         <v>57.86</v>
       </c>
       <c r="F7">
-        <v>25.45</v>
+        <v>79.09</v>
       </c>
       <c r="G7">
         <v>8</v>
       </c>
       <c r="H7">
         <v>3.13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>21.83</v>
-      </c>
-      <c r="C8">
-        <v>5.9</v>
-      </c>
-      <c r="D8">
-        <v>15.23</v>
-      </c>
-      <c r="E8">
-        <v>57.86</v>
-      </c>
-      <c r="F8">
-        <v>40.909999999999997</v>
-      </c>
-      <c r="G8">
-        <v>8</v>
-      </c>
-      <c r="H8">
-        <v>3.13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>23.95</v>
-      </c>
-      <c r="C9">
-        <v>6.08</v>
-      </c>
-      <c r="D9">
-        <v>16.95</v>
-      </c>
-      <c r="E9">
-        <v>57.86</v>
-      </c>
-      <c r="F9">
-        <v>60</v>
-      </c>
-      <c r="G9">
-        <v>8</v>
-      </c>
-      <c r="H9">
-        <v>3.13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>25.92</v>
-      </c>
-      <c r="C10">
-        <v>6.26</v>
-      </c>
-      <c r="D10">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="E10">
-        <v>57.86</v>
-      </c>
-      <c r="F10">
-        <v>82.73</v>
-      </c>
-      <c r="G10">
-        <v>8</v>
-      </c>
-      <c r="H10">
-        <v>3.13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>31.5</v>
-      </c>
-      <c r="C11">
-        <v>6.45</v>
-      </c>
-      <c r="D11">
-        <v>22.15</v>
-      </c>
-      <c r="E11">
-        <v>57.86</v>
-      </c>
-      <c r="F11">
-        <v>100</v>
-      </c>
-      <c r="G11">
-        <v>8</v>
-      </c>
-      <c r="H11">
-        <v>3.13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>43.19</v>
-      </c>
-      <c r="C12">
-        <v>6.6</v>
-      </c>
-      <c r="D12">
-        <v>27.66</v>
-      </c>
-      <c r="E12">
-        <v>57.86</v>
-      </c>
-      <c r="F12">
-        <v>100</v>
-      </c>
-      <c r="G12">
-        <v>8</v>
-      </c>
-      <c r="H12">
-        <v>3.13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>57.08</v>
-      </c>
-      <c r="C13">
-        <v>6.82</v>
-      </c>
-      <c r="D13">
-        <v>33.799999999999997</v>
-      </c>
-      <c r="E13">
-        <v>57.86</v>
-      </c>
-      <c r="F13">
-        <v>100</v>
-      </c>
-      <c r="G13">
-        <v>8</v>
-      </c>
-      <c r="H13">
-        <v>3.13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>71.78</v>
-      </c>
-      <c r="C14">
-        <v>7</v>
-      </c>
-      <c r="D14">
-        <v>40.549999999999997</v>
-      </c>
-      <c r="E14">
-        <v>57.86</v>
-      </c>
-      <c r="F14">
-        <v>100</v>
-      </c>
-      <c r="G14">
-        <v>8</v>
-      </c>
-      <c r="H14">
-        <v>6.25</v>
       </c>
     </row>
   </sheetData>
@@ -5879,20 +4878,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -5900,10 +4899,10 @@
         <v>0</v>
       </c>
       <c r="B2">
+        <v>0.43</v>
+      </c>
+      <c r="C2">
         <v>0.03</v>
-      </c>
-      <c r="C2">
-        <v>0.02</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -5911,7 +4910,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.02</v>
+        <v>0.43</v>
       </c>
       <c r="C3">
         <v>0.02</v>
@@ -5922,10 +4921,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.02</v>
+        <v>0.34</v>
       </c>
       <c r="C4">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -5933,10 +4932,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.65</v>
+        <v>0.3</v>
       </c>
       <c r="C5">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -5944,10 +4943,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.84</v>
+        <v>0.59</v>
       </c>
       <c r="C6">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -5955,87 +4954,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.56000000000000005</v>
+        <v>0.06</v>
       </c>
       <c r="C7">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>0.69</v>
-      </c>
-      <c r="C8">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>0.42</v>
-      </c>
-      <c r="C9">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>0.26</v>
-      </c>
-      <c r="C10">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>0.25</v>
-      </c>
-      <c r="C11">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>0.16</v>
-      </c>
-      <c r="C12">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>0.2</v>
-      </c>
-      <c r="C13">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="C14">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>
@@ -6046,44 +4968,44 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="B7" sqref="B7:K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="J1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="K1" t="s">
         <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -6091,7 +5013,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="C2">
         <v>0.02</v>
@@ -6118,7 +5040,7 @@
         <v>0.13</v>
       </c>
       <c r="K2">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -6126,7 +5048,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="C3">
         <v>0.02</v>
@@ -6153,7 +5075,7 @@
         <v>0.13</v>
       </c>
       <c r="K3">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -6161,7 +5083,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="C4">
         <v>0.02</v>
@@ -6188,7 +5110,7 @@
         <v>0.13</v>
       </c>
       <c r="K4">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -6196,13 +5118,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="C5">
         <v>0.02</v>
       </c>
       <c r="D5">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="E5">
         <v>0.01</v>
@@ -6223,7 +5145,7 @@
         <v>0.13</v>
       </c>
       <c r="K5">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -6231,13 +5153,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="C6">
         <v>0.02</v>
       </c>
       <c r="D6">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="E6">
         <v>0.01</v>
@@ -6258,7 +5180,7 @@
         <v>0.13</v>
       </c>
       <c r="K6">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -6266,13 +5188,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.04</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C7">
         <v>0.02</v>
       </c>
       <c r="D7">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="E7">
         <v>0.01</v>
@@ -6293,252 +5215,7 @@
         <v>0.13</v>
       </c>
       <c r="K7">
-        <v>1.48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>0.05</v>
-      </c>
-      <c r="C8">
-        <v>0.02</v>
-      </c>
-      <c r="D8">
-        <v>0.01</v>
-      </c>
-      <c r="E8">
-        <v>0.01</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>1.26</v>
-      </c>
-      <c r="J8">
-        <v>0.13</v>
-      </c>
-      <c r="K8">
-        <v>1.49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>0.05</v>
-      </c>
-      <c r="C9">
-        <v>0.02</v>
-      </c>
-      <c r="D9">
-        <v>0.01</v>
-      </c>
-      <c r="E9">
-        <v>0.02</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>1.26</v>
-      </c>
-      <c r="J9">
-        <v>0.13</v>
-      </c>
-      <c r="K9">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>0.05</v>
-      </c>
-      <c r="C10">
-        <v>0.02</v>
-      </c>
-      <c r="D10">
-        <v>0.02</v>
-      </c>
-      <c r="E10">
-        <v>0.01</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>1.26</v>
-      </c>
-      <c r="J10">
-        <v>0.13</v>
-      </c>
-      <c r="K10">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>0.05</v>
-      </c>
-      <c r="C11">
-        <v>0.03</v>
-      </c>
-      <c r="D11">
-        <v>0.02</v>
-      </c>
-      <c r="E11">
-        <v>0.01</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>1.26</v>
-      </c>
-      <c r="J11">
-        <v>0.13</v>
-      </c>
-      <c r="K11">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>0.06</v>
-      </c>
-      <c r="C12">
-        <v>0.03</v>
-      </c>
-      <c r="D12">
-        <v>0.02</v>
-      </c>
-      <c r="E12">
-        <v>0.01</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>1.26</v>
-      </c>
-      <c r="J12">
-        <v>0.13</v>
-      </c>
-      <c r="K12">
-        <v>1.51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>0.06</v>
-      </c>
-      <c r="C13">
-        <v>0.04</v>
-      </c>
-      <c r="D13">
-        <v>0.02</v>
-      </c>
-      <c r="E13">
-        <v>0.03</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>1.26</v>
-      </c>
-      <c r="J13">
-        <v>0.13</v>
-      </c>
-      <c r="K13">
-        <v>1.56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C14">
-        <v>0.04</v>
-      </c>
-      <c r="D14">
-        <v>0.02</v>
-      </c>
-      <c r="E14">
-        <v>0.03</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>1.26</v>
-      </c>
-      <c r="J14">
-        <v>0.13</v>
-      </c>
-      <c r="K14">
-        <v>1.56</v>
+        <v>1.52</v>
       </c>
     </row>
   </sheetData>

--- a/dtpu_configurations/only_integer32/100mhz/graph.xlsx
+++ b/dtpu_configurations/only_integer32/100mhz/graph.xlsx
@@ -1,23 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C54C657F-1CC0-4D09-8D4A-9E4B825FD925}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6DCA86-BD66-434E-9E87-2F5CF4DC2B54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="utilization" sheetId="1" r:id="rId1"/>
     <sheet name="tminig" sheetId="2" r:id="rId2"/>
     <sheet name="power" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="23">
   <si>
     <t>3x3</t>
   </si>
@@ -84,11 +94,17 @@
   <si>
     <t>BUFG</t>
   </si>
+  <si>
+    <t>PL dynamic</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00000000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -98,12 +114,17 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -118,8 +139,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="18" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1562,25 +1590,25 @@
             <c:numRef>
               <c:f>power!$B$2:$B$14</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000000</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0.04</c:v>
+                  <c:v>4.4515639543533325E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.05</c:v>
+                  <c:v>4.7032482922077179E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.05</c:v>
+                  <c:v>5.0413612276315689E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.06</c:v>
+                  <c:v>5.8303095400333405E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.06</c:v>
+                  <c:v>6.1135917901992798E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>7.4193596839904785E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1646,25 +1674,25 @@
             <c:numRef>
               <c:f>power!$C$2:$C$14</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000000</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0.02</c:v>
+                  <c:v>1.6547361388802528E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.02</c:v>
+                  <c:v>1.7118943855166435E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.02</c:v>
+                  <c:v>1.9149081781506538E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.02</c:v>
+                  <c:v>2.18095313757658E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.02</c:v>
+                  <c:v>2.3897390812635422E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.02</c:v>
+                  <c:v>2.3542908951640129E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1730,25 +1758,25 @@
             <c:numRef>
               <c:f>power!$D$2:$D$14</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000000</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0.01</c:v>
+                  <c:v>1.3123940676450729E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.01</c:v>
+                  <c:v>1.3356495648622513E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.01</c:v>
+                  <c:v>1.4265398494899273E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.02</c:v>
+                  <c:v>1.6170639544725418E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.02</c:v>
+                  <c:v>1.7402803525328636E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.02</c:v>
+                  <c:v>1.6412300989031792E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1814,25 +1842,25 @@
             <c:numRef>
               <c:f>power!$E$2:$E$14</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000000</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0.01</c:v>
+                  <c:v>8.5320994257926941E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.01</c:v>
+                  <c:v>9.2599391937255859E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.01</c:v>
+                  <c:v>1.1115819215774536E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.01</c:v>
+                  <c:v>1.128639280796051E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.01</c:v>
+                  <c:v>1.3424374163150787E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.01</c:v>
+                  <c:v>9.6346437931060791E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1898,25 +1926,25 @@
             <c:numRef>
               <c:f>power!$F$2:$F$14</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000000</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>7.6764897676184773E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1.3656866503879428E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2.1329226437956095E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>3.0740795191377401E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>4.1838344186544418E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>4.7768084332346916E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1982,25 +2010,25 @@
             <c:numRef>
               <c:f>power!$G$2:$G$14</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000000</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2.1401061676442623E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2.2045078221708536E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>3.5011854488402605E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>4.8524071462452412E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>4.4669522903859615E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>2.4676513858139515E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2068,25 +2096,25 @@
             <c:numRef>
               <c:f>power!$H$2:$H$14</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000000</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.9400001037865877E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1.9400001037865877E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1.9400001037865877E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1.9400001037865877E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1.9400001037865877E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1.9400001037865877E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2154,25 +2182,25 @@
             <c:numRef>
               <c:f>power!$I$2:$I$14</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000000</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>1.26</c:v>
+                  <c:v>1.2619483470916748</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.26</c:v>
+                  <c:v>1.2619483470916748</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.26</c:v>
+                  <c:v>1.2619483470916748</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.26</c:v>
+                  <c:v>1.2619483470916748</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.26</c:v>
+                  <c:v>1.2619483470916748</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.26</c:v>
+                  <c:v>1.2619483470916748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2240,25 +2268,25 @@
             <c:numRef>
               <c:f>power!$J$2:$J$14</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000000</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0.13</c:v>
+                  <c:v>0.12777349352836609</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.13</c:v>
+                  <c:v>0.12781220674514771</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.13</c:v>
+                  <c:v>0.12789644300937653</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.13</c:v>
+                  <c:v>0.12801940739154816</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.13</c:v>
+                  <c:v>0.12809386849403381</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.13</c:v>
+                  <c:v>0.12814775109291077</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2326,25 +2354,25 @@
             <c:numRef>
               <c:f>power!$K$2:$K$14</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000000</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>1.48</c:v>
+                  <c:v>1.4773017168045044</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.48</c:v>
+                  <c:v>1.4820516109466553</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.49</c:v>
+                  <c:v>1.4923758506774902</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.51</c:v>
+                  <c:v>1.5074169635772705</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.52</c:v>
+                  <c:v>1.516506552696228</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.52</c:v>
+                  <c:v>1.5230770111083984</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2435,7 +2463,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00000000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4685,8 +4713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4872,7 +4900,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4968,15 +4997,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:Z8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:K7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection sqref="A1:Z7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="11" width="10.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>6</v>
       </c>
@@ -5007,219 +5039,578 @@
       <c r="K1" t="s">
         <v>15</v>
       </c>
+      <c r="L1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U1" t="s">
+        <v>12</v>
+      </c>
+      <c r="X1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0.04</v>
-      </c>
-      <c r="C2">
-        <v>0.02</v>
-      </c>
-      <c r="D2">
-        <v>0.01</v>
-      </c>
-      <c r="E2">
-        <v>0.01</v>
-      </c>
-      <c r="F2">
+      <c r="B2" s="2">
+        <v>4.4515639543533325E-2</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1.6547361388802528E-2</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1.3123940676450729E-2</v>
+      </c>
+      <c r="E2" s="2">
+        <v>8.5320994257926941E-3</v>
+      </c>
+      <c r="F2" s="2">
+        <v>7.6764897676184773E-4</v>
+      </c>
+      <c r="G2" s="2">
+        <v>2.1401061676442623E-3</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1.9400001037865877E-3</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1.2619483470916748</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0.12777349352836609</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1.4773017168045044</v>
+      </c>
+      <c r="L2">
+        <f>K2-J2-I2</f>
+        <v>8.7579876184463501E-2</v>
+      </c>
+      <c r="N2" t="s">
         <v>0</v>
       </c>
-      <c r="G2">
+      <c r="O2" s="3">
+        <f>B2/L2</f>
+        <v>0.50828616667341575</v>
+      </c>
+      <c r="P2" s="3">
+        <f>C2/L2</f>
+        <v>0.18894022359599999</v>
+      </c>
+      <c r="Q2" s="3">
+        <f>D2/L2</f>
+        <v>0.14985109877078007</v>
+      </c>
+      <c r="R2" s="3">
+        <f>E2/L2</f>
+        <v>9.7420775154124645E-2</v>
+      </c>
+      <c r="S2" s="3">
+        <f>F2/L2</f>
+        <v>8.7651297330564974E-3</v>
+      </c>
+      <c r="T2" s="3">
+        <f>G2/L2</f>
+        <v>2.4436049248764673E-2</v>
+      </c>
+      <c r="U2" s="3">
+        <f>H2/L2</f>
+        <v>2.2151208568741275E-2</v>
+      </c>
+      <c r="W2" t="s">
         <v>0</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>1.26</v>
-      </c>
-      <c r="J2">
-        <v>0.13</v>
-      </c>
-      <c r="K2">
-        <v>1.48</v>
+      <c r="X2" s="3">
+        <f>I2/K2</f>
+        <v>0.8542251949868086</v>
+      </c>
+      <c r="Y2" s="3">
+        <f>J2/K2</f>
+        <v>8.6491129113928131E-2</v>
+      </c>
+      <c r="Z2" s="3">
+        <f>L2/K2</f>
+        <v>5.9283675899263304E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>0.05</v>
-      </c>
-      <c r="C3">
-        <v>0.02</v>
-      </c>
-      <c r="D3">
-        <v>0.01</v>
-      </c>
-      <c r="E3">
-        <v>0.01</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>1.26</v>
-      </c>
-      <c r="J3">
-        <v>0.13</v>
-      </c>
-      <c r="K3">
-        <v>1.48</v>
+      <c r="B3" s="2">
+        <v>4.7032482922077179E-2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1.7118943855166435E-2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1.3356495648622513E-2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>9.2599391937255859E-3</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1.3656866503879428E-3</v>
+      </c>
+      <c r="G3" s="2">
+        <v>2.2045078221708536E-3</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1.9400001037865877E-3</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1.2619483470916748</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.12781220674514771</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1.4820516109466553</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L8" si="0">K3-J3-I3</f>
+        <v>9.2291057109832764E-2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" s="3">
+        <f t="shared" ref="O3:O8" si="1">B3/L3</f>
+        <v>0.50961040424648363</v>
+      </c>
+      <c r="P3" s="3">
+        <f t="shared" ref="P3:P8" si="2">C3/L3</f>
+        <v>0.18548865286908248</v>
+      </c>
+      <c r="Q3" s="3">
+        <f t="shared" ref="Q3:Q8" si="3">D3/L3</f>
+        <v>0.14472145045134066</v>
+      </c>
+      <c r="R3" s="3">
+        <f t="shared" ref="R3:R8" si="4">E3/L3</f>
+        <v>0.10033408960421393</v>
+      </c>
+      <c r="S3" s="3">
+        <f t="shared" ref="S3:S8" si="5">F3/L3</f>
+        <v>1.4797605457727946E-2</v>
+      </c>
+      <c r="T3" s="3">
+        <f t="shared" ref="T3:T8" si="6">G3/L3</f>
+        <v>2.3886472765691006E-2</v>
+      </c>
+      <c r="U3" s="3">
+        <f t="shared" ref="U3:U8" si="7">H3/L3</f>
+        <v>2.1020455985002458E-2</v>
+      </c>
+      <c r="W3" t="s">
+        <v>1</v>
+      </c>
+      <c r="X3" s="3">
+        <f t="shared" ref="X3:X8" si="8">I3/K3</f>
+        <v>0.85148745007983206</v>
+      </c>
+      <c r="Y3" s="3">
+        <f t="shared" ref="Y3:Y8" si="9">J3/K3</f>
+        <v>8.6240051156860925E-2</v>
+      </c>
+      <c r="Z3" s="3">
+        <f t="shared" ref="Z3:Z8" si="10">L3/K3</f>
+        <v>6.2272498763307017E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>0.05</v>
-      </c>
-      <c r="C4">
-        <v>0.02</v>
-      </c>
-      <c r="D4">
-        <v>0.01</v>
-      </c>
-      <c r="E4">
-        <v>0.01</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>1.26</v>
-      </c>
-      <c r="J4">
-        <v>0.13</v>
-      </c>
-      <c r="K4">
-        <v>1.49</v>
+      <c r="B4" s="2">
+        <v>5.0413612276315689E-2</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1.9149081781506538E-2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.4265398494899273E-2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1.1115819215774536E-2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2.1329226437956095E-3</v>
+      </c>
+      <c r="G4" s="2">
+        <v>3.5011854488402605E-3</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1.9400001037865877E-3</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1.2619483470916748</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.12789644300937653</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1.4923758506774902</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>0.1025310605764389</v>
+      </c>
+      <c r="N4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" s="3">
+        <f t="shared" si="1"/>
+        <v>0.49169112260114933</v>
+      </c>
+      <c r="P4" s="3">
+        <f t="shared" si="2"/>
+        <v>0.18676371505228431</v>
+      </c>
+      <c r="Q4" s="3">
+        <f t="shared" si="3"/>
+        <v>0.13913245815168507</v>
+      </c>
+      <c r="R4" s="3">
+        <f t="shared" si="4"/>
+        <v>0.10841416399362686</v>
+      </c>
+      <c r="S4" s="3">
+        <f t="shared" si="5"/>
+        <v>2.080269756115001E-2</v>
+      </c>
+      <c r="T4" s="3">
+        <f t="shared" si="6"/>
+        <v>3.4147559082645579E-2</v>
+      </c>
+      <c r="U4" s="3">
+        <f t="shared" si="7"/>
+        <v>1.892109662067018E-2</v>
+      </c>
+      <c r="W4" t="s">
+        <v>2</v>
+      </c>
+      <c r="X4" s="3">
+        <f t="shared" si="8"/>
+        <v>0.84559686925970501</v>
+      </c>
+      <c r="Y4" s="3">
+        <f t="shared" si="9"/>
+        <v>8.5699887834097349E-2</v>
+      </c>
+      <c r="Z4" s="3">
+        <f t="shared" si="10"/>
+        <v>6.8703242906197615E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>0.06</v>
-      </c>
-      <c r="C5">
-        <v>0.02</v>
-      </c>
-      <c r="D5">
-        <v>0.02</v>
-      </c>
-      <c r="E5">
-        <v>0.01</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>1.26</v>
-      </c>
-      <c r="J5">
-        <v>0.13</v>
-      </c>
-      <c r="K5">
-        <v>1.51</v>
+      <c r="B5" s="2">
+        <v>5.8303095400333405E-2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2.18095313757658E-2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1.6170639544725418E-2</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1.128639280796051E-2</v>
+      </c>
+      <c r="F5" s="2">
+        <v>3.0740795191377401E-3</v>
+      </c>
+      <c r="G5" s="2">
+        <v>4.8524071462452412E-3</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1.9400001037865877E-3</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1.2619483470916748</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.12801940739154816</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1.5074169635772705</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>0.11744920909404755</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" s="3">
+        <f t="shared" si="1"/>
+        <v>0.49641113678038612</v>
+      </c>
+      <c r="P5" s="3">
+        <f t="shared" si="2"/>
+        <v>0.18569330133421164</v>
+      </c>
+      <c r="Q5" s="3">
+        <f t="shared" si="3"/>
+        <v>0.13768197903978022</v>
+      </c>
+      <c r="R5" s="3">
+        <f t="shared" si="4"/>
+        <v>9.6095945600816454E-2</v>
+      </c>
+      <c r="S5" s="3">
+        <f t="shared" si="5"/>
+        <v>2.6173692806021099E-2</v>
+      </c>
+      <c r="T5" s="3">
+        <f t="shared" si="6"/>
+        <v>4.1314941017267064E-2</v>
+      </c>
+      <c r="U5" s="3">
+        <f t="shared" si="7"/>
+        <v>1.6517779206440899E-2</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X5" s="3">
+        <f t="shared" si="8"/>
+        <v>0.83715944399148134</v>
+      </c>
+      <c r="Y5" s="3">
+        <f t="shared" si="9"/>
+        <v>8.49263412080382E-2</v>
+      </c>
+      <c r="Z5" s="3">
+        <f t="shared" si="10"/>
+        <v>7.7914214800480497E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>0.06</v>
-      </c>
-      <c r="C6">
-        <v>0.02</v>
-      </c>
-      <c r="D6">
-        <v>0.02</v>
-      </c>
-      <c r="E6">
-        <v>0.01</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>1.26</v>
-      </c>
-      <c r="J6">
-        <v>0.13</v>
-      </c>
-      <c r="K6">
-        <v>1.52</v>
+      <c r="B6" s="2">
+        <v>6.1135917901992798E-2</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2.3897390812635422E-2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1.7402803525328636E-2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1.3424374163150787E-2</v>
+      </c>
+      <c r="F6" s="2">
+        <v>4.1838344186544418E-3</v>
+      </c>
+      <c r="G6" s="2">
+        <v>4.4669522903859615E-3</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1.9400001037865877E-3</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1.2619483470916748</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.12809386849403381</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1.516506552696228</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>0.12646433711051941</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O6" s="3">
+        <f t="shared" si="1"/>
+        <v>0.48342417553309946</v>
+      </c>
+      <c r="P6" s="3">
+        <f t="shared" si="2"/>
+        <v>0.18896545349184943</v>
+      </c>
+      <c r="Q6" s="3">
+        <f t="shared" si="3"/>
+        <v>0.13761036449445838</v>
+      </c>
+      <c r="R6" s="3">
+        <f t="shared" si="4"/>
+        <v>0.10615146111444043</v>
+      </c>
+      <c r="S6" s="3">
+        <f t="shared" si="5"/>
+        <v>3.3083116665515867E-2</v>
+      </c>
+      <c r="T6" s="3">
+        <f t="shared" si="6"/>
+        <v>3.5321833747345016E-2</v>
+      </c>
+      <c r="U6" s="3">
+        <f t="shared" si="7"/>
+        <v>1.5340293936710296E-2</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="X6" s="3">
+        <f t="shared" si="8"/>
+        <v>0.83214170413443389</v>
+      </c>
+      <c r="Y6" s="3">
+        <f t="shared" si="9"/>
+        <v>8.4466412800058857E-2</v>
+      </c>
+      <c r="Z6" s="3">
+        <f t="shared" si="10"/>
+        <v>8.339188306550728E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C7">
-        <v>0.02</v>
-      </c>
-      <c r="D7">
-        <v>0.02</v>
-      </c>
-      <c r="E7">
-        <v>0.01</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>1.26</v>
-      </c>
-      <c r="J7">
-        <v>0.13</v>
-      </c>
-      <c r="K7">
-        <v>1.52</v>
-      </c>
+      <c r="B7" s="2">
+        <v>7.4193596839904785E-2</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2.3542908951640129E-2</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1.6412300989031792E-2</v>
+      </c>
+      <c r="E7" s="2">
+        <v>9.6346437931060791E-3</v>
+      </c>
+      <c r="F7" s="2">
+        <v>4.7768084332346916E-3</v>
+      </c>
+      <c r="G7" s="2">
+        <v>2.4676513858139515E-3</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1.9400001037865877E-3</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1.2619483470916748</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.12814775109291077</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1.5230770111083984</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>0.13298091292381287</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O7" s="3">
+        <f t="shared" si="1"/>
+        <v>0.55792666186922346</v>
+      </c>
+      <c r="P7" s="3">
+        <f t="shared" si="2"/>
+        <v>0.17703976032356072</v>
+      </c>
+      <c r="Q7" s="3">
+        <f t="shared" si="3"/>
+        <v>0.12341847132930041</v>
+      </c>
+      <c r="R7" s="3">
+        <f t="shared" si="4"/>
+        <v>7.2451328399481943E-2</v>
+      </c>
+      <c r="S7" s="3">
+        <f t="shared" si="5"/>
+        <v>3.5921007971808784E-2</v>
+      </c>
+      <c r="T7" s="3">
+        <f t="shared" si="6"/>
+        <v>1.8556432886182042E-2</v>
+      </c>
+      <c r="U7" s="3">
+        <f t="shared" si="7"/>
+        <v>1.4588560577096116E-2</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="X7" s="3">
+        <f t="shared" si="8"/>
+        <v>0.82855189717118061</v>
+      </c>
+      <c r="Y7" s="3">
+        <f t="shared" si="9"/>
+        <v>8.4137407470718101E-2</v>
+      </c>
+      <c r="Z7" s="3">
+        <f t="shared" si="10"/>
+        <v>8.731069535810132E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>